--- a/2022春硬件综合训练课设资料发布包/cpu21-riscv/RISC-V单周期硬布线控制器表达式自动生成（2022-1-24）.xlsx
+++ b/2022春硬件综合训练课设资料发布包/cpu21-riscv/RISC-V单周期硬布线控制器表达式自动生成（2022-1-24）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\实验\hust-riscv\2022春硬件综合训练课设资料发布包\cpu21-riscv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5AC481-529E-44F1-BA65-493E32D0F7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C246D52-60F7-421D-AFA8-1CB51D023286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1560" yWindow="795" windowWidth="16365" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
@@ -2233,7 +2233,7 @@
   <dimension ref="A1:AN62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+      <selection activeCell="AG25" sqref="AG25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2353,7 +2353,7 @@
         <v>125</v>
       </c>
       <c r="AG1" s="25" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="AH1" s="25" t="s">
         <v>13</v>
@@ -4665,7 +4665,9 @@
       <c r="AD25" s="57"/>
       <c r="AE25" s="57"/>
       <c r="AF25" s="57"/>
-      <c r="AG25" s="58"/>
+      <c r="AG25" s="58">
+        <v>1</v>
+      </c>
       <c r="AH25" s="58"/>
       <c r="AI25" s="58"/>
       <c r="AJ25" s="58"/>
@@ -7669,7 +7671,7 @@
       </c>
       <c r="AF1" s="25" t="str">
         <f>真值表!AG1</f>
-        <v>XXX</v>
+        <v>URET</v>
       </c>
       <c r="AG1" s="25" t="str">
         <f>真值表!AH1</f>
@@ -11365,7 +11367,7 @@
       </c>
       <c r="AF25" s="49" t="str">
         <f>IF(真值表!AG25=1,$O25&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AG25" s="49" t="str">
         <f>IF(真值表!AH25=1,$O25&amp;"+","")</f>
@@ -16404,7 +16406,7 @@
       </c>
       <c r="AF58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="AG58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -16504,7 +16506,7 @@
       </c>
       <c r="AF59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AG59" t="str">
         <f t="shared" si="3"/>
